--- a/data/trans_orig/IP1007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF0152A-495A-4EA5-8A7C-07E687C3FEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF02EFF-73E8-4563-BEF4-4BB11DF9C817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{23E9041C-16DC-433C-8200-110152726273}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EEC5F8E0-529E-49CD-A847-F09BE7664B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,90 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,69%</t>
   </si>
   <si>
@@ -94,15 +163,6 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -118,43 +178,49 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -190,72 +256,6 @@
     <t>0,85%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
     <t>99,55%</t>
   </si>
   <si>
@@ -301,6 +301,66 @@
     <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -313,34 +373,22 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>99,32%</t>
@@ -367,54 +415,6 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -454,6 +454,54 @@
     <t>Menores según si padecen trastornos convulsivos en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>99,43%</t>
   </si>
   <si>
@@ -466,22 +514,10 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>99,35%</t>
@@ -506,42 +542,6 @@
   </si>
   <si>
     <t>1,11%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -957,7 +957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C272C25-869B-4F00-8138-1F8620A4142C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB25457-398E-41F5-8DBC-FACBD5992DD8}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1075,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1090,85 +1090,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>194565</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>633</v>
-      </c>
-      <c r="N4" s="7">
-        <v>406707</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>598</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>598</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1177,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1192,10 +1192,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1207,10 +1207,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1236,10 +1236,10 @@
         <v>127080</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -1251,10 +1251,10 @@
         <v>115386</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -1266,10 +1266,10 @@
         <v>242466</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1278,7 +1278,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1287,13 +1287,13 @@
         <v>553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -1302,13 +1302,13 @@
         <v>616</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1317,13 +1317,13 @@
         <v>1169</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,52 +1379,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="D10" s="7">
-        <v>207124</v>
+        <v>212142</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>311</v>
+      </c>
+      <c r="I10" s="7">
+        <v>194565</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>633</v>
+      </c>
+      <c r="N10" s="7">
+        <v>406707</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>274</v>
-      </c>
-      <c r="I10" s="7">
-        <v>209315</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>579</v>
-      </c>
-      <c r="N10" s="7">
-        <v>416439</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -1433,52 +1433,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>700</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>700</v>
+        <v>598</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1487,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1502,10 +1502,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1517,10 +1517,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1534,106 +1534,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>147642</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7">
+        <v>228</v>
+      </c>
+      <c r="I13" s="7">
+        <v>137293</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="7">
+        <v>457</v>
+      </c>
+      <c r="N13" s="7">
+        <v>284936</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>62</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48168</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1657,10 +1657,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1672,10 +1672,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1689,103 +1689,103 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="D16" s="7">
-        <v>147642</v>
+        <v>207124</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="I16" s="7">
-        <v>137293</v>
+        <v>209315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>457</v>
+        <v>579</v>
       </c>
       <c r="N16" s="7">
-        <v>284936</v>
+        <v>416439</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>700</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2015</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="L17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="7">
         <v>1</v>
       </c>
-      <c r="I17" s="7">
-        <v>524</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
       <c r="N17" s="7">
-        <v>2538</v>
+        <v>700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>71</v>
@@ -1797,10 +1797,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1812,10 +1812,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1827,10 +1827,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1862,7 +1862,7 @@
         <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
         <v>1015</v>
@@ -1889,7 +1889,7 @@
         <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>78</v>
@@ -1898,7 +1898,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -1910,7 +1910,7 @@
         <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>80</v>
@@ -1943,7 +1943,7 @@
         <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5EAD07D-440A-49AE-943F-FD17C3A43111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF03434-B008-4FEA-8230-B7C49796092A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2133,10 +2133,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2148,85 +2148,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>205398</v>
+        <v>21477</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>638</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>427376</v>
+        <v>46932</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,10 +2235,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2250,10 +2250,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2265,10 +2265,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2294,10 +2294,10 @@
         <v>126956</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2312,7 +2312,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2324,10 +2324,10 @@
         <v>240974</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2336,7 +2336,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -2345,13 +2345,13 @@
         <v>687</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2360,13 +2360,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2375,13 +2375,13 @@
         <v>687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,106 +2437,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="I10" s="7">
-        <v>209732</v>
+        <v>205398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="N10" s="7">
-        <v>416814</v>
+        <v>427376</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,10 +2545,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2560,10 +2560,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2575,10 +2575,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2592,106 +2592,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="I13" s="7">
-        <v>21477</v>
+        <v>154839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>496</v>
       </c>
       <c r="N13" s="7">
-        <v>46932</v>
+        <v>320824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>113</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>896</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>896</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,10 +2700,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2715,10 +2715,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2730,10 +2730,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2747,103 +2747,103 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D16" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>274</v>
+      </c>
+      <c r="I16" s="7">
+        <v>209732</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>241</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154839</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>555</v>
+      </c>
+      <c r="N16" s="7">
+        <v>416814</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>496</v>
-      </c>
-      <c r="N16" s="7">
-        <v>320824</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>568</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>123</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>124</v>
@@ -2855,10 +2855,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2870,10 +2870,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2885,10 +2885,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2944,7 +2944,7 @@
         <v>1452919</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>129</v>
@@ -2956,7 +2956,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2968,7 +2968,7 @@
         <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>132</v>
@@ -2983,7 +2983,7 @@
         <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>134</v>
@@ -2995,7 +2995,7 @@
         <v>2151</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>135</v>
@@ -3073,7 +3073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60B8369-96EB-446C-8126-B78E3D42FF97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE810A34-2F2B-4286-86FC-DA9E551184DA}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3191,46 +3191,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>223733</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>21364</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>665</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>430980</v>
+        <v>46938</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -3239,52 +3239,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
+      <c r="G5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>626</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1163</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>626</v>
+        <v>1163</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,10 +3293,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3308,10 +3308,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3323,10 +3323,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3355,7 +3355,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3370,7 +3370,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3385,7 +3385,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3394,22 +3394,22 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3418,13 +3418,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,52 +3495,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>204409</v>
+        <v>223733</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I10" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>569</v>
+        <v>665</v>
       </c>
       <c r="N10" s="7">
-        <v>411829</v>
+        <v>430980</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3549,52 +3549,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>626</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1327</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1327</v>
+        <v>626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,10 +3603,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3618,10 +3618,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3633,10 +3633,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3650,106 +3650,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>259</v>
       </c>
       <c r="I13" s="7">
-        <v>21364</v>
+        <v>155997</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>507</v>
       </c>
       <c r="N13" s="7">
-        <v>46938</v>
+        <v>322670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,10 +3758,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3773,10 +3773,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3788,10 +3788,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3805,106 +3805,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D16" s="7">
-        <v>166673</v>
+        <v>204409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N16" s="7">
-        <v>322670</v>
+        <v>411829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1327</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1327</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3928,10 +3928,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3943,10 +3943,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3987,7 +3987,7 @@
         <v>703208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>169</v>
@@ -4002,7 +4002,7 @@
         <v>1446098</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>170</v>
@@ -4014,7 +4014,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -4038,10 +4038,10 @@
         <v>1163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>173</v>
@@ -4053,7 +4053,7 @@
         <v>3117</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>174</v>

--- a/data/trans_orig/IP1007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF02EFF-73E8-4563-BEF4-4BB11DF9C817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD107FD-5CB8-49DD-B790-E8DC3ECCE32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EEC5F8E0-529E-49CD-A847-F09BE7664B4F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9CB293C-ACDA-4FF1-B855-5E9623554D15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="169">
   <si>
     <t>Menores según si padecen trastornos convulsivos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,484 +106,445 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,81%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,35%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>98,33%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,16%</t>
+    <t>98,28%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
     <t>99,26%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
   </si>
   <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
   </si>
 </sst>
 </file>
@@ -576,7 +555,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -672,39 +651,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -756,7 +735,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -867,13 +846,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -882,6 +854,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -946,19 +925,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB25457-398E-41F5-8DBC-FACBD5992DD8}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F9C57-4139-4B71-916F-BAD14298C8A6}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1075,10 +1074,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1090,34 +1089,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1126,10 +1125,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1141,34 +1140,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1183,13 +1182,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1198,13 +1197,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1213,13 +1212,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1230,49 +1229,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>127080</v>
+        <v>553</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>115386</v>
+        <v>616</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>242466</v>
+        <v>1169</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1281,49 +1280,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>553</v>
+        <v>127080</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>173</v>
       </c>
       <c r="I8" s="7">
-        <v>616</v>
+        <v>115386</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>365</v>
       </c>
       <c r="N8" s="7">
-        <v>1169</v>
+        <v>242466</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1338,13 +1337,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1353,13 +1352,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1368,13 +1367,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1385,49 +1384,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>212142</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>194565</v>
+        <v>598</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>633</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>406707</v>
+        <v>598</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1436,49 +1435,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>212142</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>311</v>
       </c>
       <c r="I11" s="7">
-        <v>598</v>
+        <v>194565</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>633</v>
       </c>
       <c r="N11" s="7">
-        <v>598</v>
+        <v>406707</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,13 +1492,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1508,13 +1507,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1523,13 +1522,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1540,40 +1539,40 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>147642</v>
+        <v>2015</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="H13" s="7">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>137293</v>
+        <v>524</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>284936</v>
+        <v>2538</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>51</v>
@@ -1591,40 +1590,40 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>229</v>
       </c>
       <c r="D14" s="7">
-        <v>2015</v>
+        <v>147642</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="I14" s="7">
-        <v>524</v>
+        <v>137293</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>457</v>
       </c>
       <c r="N14" s="7">
-        <v>2538</v>
+        <v>284936</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>58</v>
@@ -1648,13 +1647,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1663,13 +1662,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1678,13 +1677,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,49 +1694,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>207124</v>
+        <v>700</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>209315</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>579</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>416439</v>
+        <v>700</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,49 +1745,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="D17" s="7">
-        <v>700</v>
+        <v>207124</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>209315</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>579</v>
       </c>
       <c r="N17" s="7">
-        <v>700</v>
+        <v>416439</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,13 +1802,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1818,13 +1817,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1833,13 +1832,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,25 +1849,25 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1081</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>719432</v>
+        <v>3268</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="H19" s="7">
-        <v>1015</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>679283</v>
+        <v>1738</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>74</v>
@@ -1880,16 +1879,16 @@
         <v>76</v>
       </c>
       <c r="M19" s="7">
-        <v>2096</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>1398715</v>
+        <v>5006</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>78</v>
@@ -1901,25 +1900,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>1081</v>
       </c>
       <c r="D20" s="7">
-        <v>3268</v>
+        <v>719432</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="I20" s="7">
-        <v>1738</v>
+        <v>679283</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>81</v>
@@ -1931,10 +1930,10 @@
         <v>83</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>2096</v>
       </c>
       <c r="N20" s="7">
-        <v>5006</v>
+        <v>1398715</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>84</v>
@@ -1943,7 +1942,7 @@
         <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,13 +1957,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -1973,13 +1972,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -1988,13 +1987,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2015,8 +2019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF03434-B008-4FEA-8230-B7C49796092A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7B3C46-39C0-463E-B96C-79175ED01916}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2032,7 +2036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2133,49 +2137,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>21477</v>
+        <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>46932</v>
+        <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,49 +2188,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>896</v>
+        <v>21477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>896</v>
+        <v>46932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2245,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2256,13 +2260,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2271,13 +2275,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,49 +2292,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126956</v>
+        <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>114018</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
-        <v>339</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>240974</v>
+        <v>687</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,49 +2343,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D8" s="7">
-        <v>687</v>
+        <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>114018</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="N8" s="7">
-        <v>687</v>
+        <v>240974</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2400,13 @@
         <v>127643</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2411,13 +2415,13 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>340</v>
@@ -2426,13 +2430,13 @@
         <v>241661</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,49 +2447,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>205398</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
-        <v>638</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>427376</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,49 +2498,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>205398</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>427376</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,16 +2552,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2566,13 +2570,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2581,13 +2585,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,49 +2602,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>165985</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>320824</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,49 +2653,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>165985</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>154839</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>320824</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2710,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2721,13 +2725,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2736,13 +2740,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,49 +2757,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>207082</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>209732</v>
+        <v>568</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>568</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="7">
-        <v>555</v>
-      </c>
-      <c r="N16" s="7">
-        <v>416814</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,49 +2808,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>207082</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>568</v>
+        <v>209732</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="7">
+        <v>555</v>
+      </c>
+      <c r="N17" s="7">
+        <v>416814</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>568</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2865,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2876,13 +2880,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2891,13 +2895,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,40 +2912,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1065</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>747455</v>
+        <v>687</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>1016</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>705464</v>
+        <v>1464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="M19" s="7">
-        <v>2081</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>1452919</v>
+        <v>2151</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -2950,7 +2954,7 @@
         <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,49 +2963,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>1065</v>
       </c>
       <c r="D20" s="7">
-        <v>687</v>
+        <v>747455</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1016</v>
+      </c>
+      <c r="I20" s="7">
+        <v>705464</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1464</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2081</v>
       </c>
       <c r="N20" s="7">
-        <v>2151</v>
+        <v>1452919</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3020,13 @@
         <v>748142</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3031,13 +3035,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2084</v>
@@ -3046,13 +3050,18 @@
         <v>1455070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3073,8 +3082,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE810A34-2F2B-4286-86FC-DA9E551184DA}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51887E5E-4F88-4037-B62C-28F29E511BF1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3090,7 +3099,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3191,49 +3200,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1163</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1163</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>21364</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
-      <c r="N4" s="7">
-        <v>46938</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,49 +3251,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>21364</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="7">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7">
+        <v>46938</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1163</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1163</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,13 +3308,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3314,13 +3323,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3329,13 +3338,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,49 +3355,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>233682</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,49 +3406,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>233682</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3463,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3469,13 +3478,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3484,13 +3493,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,49 +3510,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>223733</v>
+        <v>626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
-        <v>665</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>430980</v>
+        <v>626</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,49 +3561,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="D11" s="7">
-        <v>626</v>
+        <v>223733</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="N11" s="7">
-        <v>626</v>
+        <v>430980</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3618,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3624,13 +3633,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3639,13 +3648,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,49 +3665,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>166673</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M13" s="7">
-        <v>507</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>322670</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,49 +3716,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>166673</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>155997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>322670</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3773,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3779,13 +3788,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3794,13 +3803,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,49 +3820,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>204409</v>
+        <v>1327</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1327</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>281</v>
-      </c>
-      <c r="I16" s="7">
-        <v>207420</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>569</v>
-      </c>
-      <c r="N16" s="7">
-        <v>411829</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,49 +3871,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="D17" s="7">
-        <v>1327</v>
+        <v>204409</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>281</v>
+      </c>
+      <c r="I17" s="7">
+        <v>207420</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="7">
+        <v>569</v>
+      </c>
+      <c r="N17" s="7">
+        <v>411829</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1327</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3928,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3934,13 +3943,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3949,13 +3958,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,49 +3975,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1062</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>742891</v>
+        <v>1953</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>76</v>
       </c>
       <c r="H19" s="7">
-        <v>1060</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>703208</v>
+        <v>1163</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
-        <v>2122</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>1446098</v>
+        <v>3117</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,10 +4026,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>1062</v>
       </c>
       <c r="D20" s="7">
-        <v>1953</v>
+        <v>742891</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>81</v>
@@ -4029,37 +4038,37 @@
         <v>82</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>1060</v>
       </c>
       <c r="I20" s="7">
-        <v>1163</v>
+        <v>703208</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>2122</v>
       </c>
       <c r="N20" s="7">
-        <v>3117</v>
+        <v>1446098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4083,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4089,13 +4098,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4104,13 +4113,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1007-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD107FD-5CB8-49DD-B790-E8DC3ECCE32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E37F627-2587-486D-84D9-3F0D1C7D9F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9CB293C-ACDA-4FF1-B855-5E9623554D15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D36BA30-9459-4B03-BC5C-31B210DC11BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,46 +106,46 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,16%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>3,07%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,66%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,84%</t>
+    <t>97,83%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>96,93%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -154,7 +154,7 @@
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,53%</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -169,7 +169,7 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,28%</t>
+    <t>98,47%</t>
   </si>
   <si>
     <t>99,85%</t>
@@ -178,19 +178,19 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>4,06%</t>
+    <t>3,65%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,91%</t>
+    <t>1,92%</t>
   </si>
   <si>
     <t>0,88%</t>
@@ -199,25 +199,25 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>95,94%</t>
+    <t>96,35%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>98,09%</t>
+    <t>98,08%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,98%</t>
+    <t>97,8%</t>
   </si>
   <si>
     <t>99,78%</t>
@@ -229,7 +229,7 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>0,7%</t>
@@ -238,13 +238,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,3%</t>
+    <t>97,99%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -253,13 +253,13 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>99,16%</t>
+    <t>99,08%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,97%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -268,283 +268,283 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>0,05%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>99,95%</t>
   </si>
 </sst>
 </file>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022F9C57-4139-4B71-916F-BAD14298C8A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE1AF42-621D-4146-8CAA-808F6D4E5206}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1888,10 +1888,10 @@
         <v>77</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
         <v>719432</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>70</v>
@@ -1921,13 +1921,13 @@
         <v>679283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>2096</v>
@@ -1936,13 +1936,13 @@
         <v>1398715</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,7 +1998,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7B3C46-39C0-463E-B96C-79175ED01916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDD210C-22B5-47E6-8A5C-9757C36685CF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,7 +2036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2149,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2158,13 +2158,13 @@
         <v>896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2173,13 +2173,13 @@
         <v>896</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,7 +2197,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2209,10 +2209,10 @@
         <v>21477</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2224,10 +2224,10 @@
         <v>46932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2298,13 +2298,13 @@
         <v>687</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2328,13 +2328,13 @@
         <v>687</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,10 +2349,10 @@
         <v>126956</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2367,7 +2367,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2379,10 +2379,10 @@
         <v>240974</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2459,7 +2459,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2489,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2501,13 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2522,7 +2522,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2537,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2552,7 +2552,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2614,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,7 +2662,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -2677,7 +2677,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2692,7 +2692,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -2769,7 +2769,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2778,13 +2778,13 @@
         <v>568</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -2793,13 +2793,13 @@
         <v>568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,7 +2817,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2829,10 +2829,10 @@
         <v>209732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2844,10 +2844,10 @@
         <v>416814</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2939,7 +2939,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2954,7 +2954,7 @@
         <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,10 +2969,10 @@
         <v>747455</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>17</v>
@@ -2984,10 +2984,10 @@
         <v>705464</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -3002,10 +3002,10 @@
         <v>44</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,7 +3061,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51887E5E-4F88-4037-B62C-28F29E511BF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC3CC72-9C55-428D-98C7-89C627F5B078}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3099,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3212,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3221,13 +3221,13 @@
         <v>1163</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3236,13 +3236,13 @@
         <v>1163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,7 +3260,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3272,10 +3272,10 @@
         <v>21364</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -3287,10 +3287,10 @@
         <v>46938</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -3367,7 +3367,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,7 +3415,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3430,7 +3430,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3516,13 +3516,13 @@
         <v>626</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,10 +3567,10 @@
         <v>223733</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3600,7 +3600,7 @@
         <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3677,7 +3677,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3692,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>153</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3740,7 +3740,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3826,13 +3826,13 @@
         <v>1327</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3847,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3856,13 +3856,13 @@
         <v>1327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,10 +3877,10 @@
         <v>204409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3895,7 +3895,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3907,10 +3907,10 @@
         <v>411829</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -3987,7 +3987,7 @@
         <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4002,7 +4002,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4014,10 +4014,10 @@
         <v>52</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4032,13 @@
         <v>742891</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>1060</v>
@@ -4050,7 +4050,7 @@
         <v>70</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>17</v>
@@ -4065,10 +4065,10 @@
         <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4124,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1007-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1007-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E37F627-2587-486D-84D9-3F0D1C7D9F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B346AE-8E19-486C-9631-457070EBBA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D36BA30-9459-4B03-BC5C-31B210DC11BF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CB7BBA5E-F258-4927-B4A2-0D2F92C004E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="150">
   <si>
     <t>Menores según si padecen trastornos convulsivos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,478 +67,421 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos convulsivos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>99,28%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos convulsivos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,31%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>1,11%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>97,69%</t>
+    <t>97,87%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,0%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
     <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -956,8 +899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE1AF42-621D-4146-8CAA-808F6D4E5206}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17628C91-D7DF-48EF-997C-FC08E3926A1A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1074,10 +1017,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1089,85 +1032,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138110</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152524</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>290634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1176,54 +1119,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1232,97 +1175,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>553</v>
+        <v>598</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
-        <v>616</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
       <c r="N7" s="7">
-        <v>1169</v>
+        <v>598</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="D8" s="7">
-        <v>127080</v>
+        <v>194565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>173</v>
+        <v>322</v>
       </c>
       <c r="I8" s="7">
-        <v>115386</v>
+        <v>212142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>365</v>
+        <v>633</v>
       </c>
       <c r="N8" s="7">
-        <v>242466</v>
+        <v>406707</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1331,153 +1274,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>598</v>
+        <v>2015</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>598</v>
+        <v>2538</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>212142</v>
+        <v>137293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="I11" s="7">
-        <v>194565</v>
+        <v>147642</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>633</v>
+        <v>457</v>
       </c>
       <c r="N11" s="7">
-        <v>406707</v>
+        <v>284936</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1486,153 +1429,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>524</v>
+        <v>700</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>2538</v>
+        <v>700</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>147642</v>
+        <v>209315</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="I14" s="7">
-        <v>137293</v>
+        <v>207124</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>457</v>
+        <v>579</v>
       </c>
       <c r="N14" s="7">
-        <v>284936</v>
+        <v>416439</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,153 +1584,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>700</v>
+        <v>1738</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3268</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>700</v>
+        <v>5006</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>305</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="7">
-        <v>207124</v>
+        <v>679283</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1081</v>
       </c>
       <c r="I17" s="7">
-        <v>209315</v>
+        <v>719432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
-        <v>579</v>
+        <v>2096</v>
       </c>
       <c r="N17" s="7">
-        <v>416439</v>
+        <v>1398715</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1796,217 +1739,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3268</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1738</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="7">
-        <v>8</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5006</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="7" t="s">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1081</v>
-      </c>
-      <c r="D20" s="7">
-        <v>719432</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679283</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2096</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1398715</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2019,8 +1806,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDD210C-22B5-47E6-8A5C-9757C36685CF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627FD3A6-E1AC-48EF-BF7F-FA6FA6457A3F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2036,7 +1823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2137,100 +1924,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>896</v>
+        <v>687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>896</v>
+        <v>1583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>135495</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>21477</v>
+        <v>152411</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="N5" s="7">
-        <v>46932</v>
+        <v>287906</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,72 +2026,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>289489</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2313,79 +2100,79 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>687</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>317</v>
       </c>
       <c r="D8" s="7">
-        <v>126956</v>
+        <v>205398</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>339</v>
+        <v>638</v>
       </c>
       <c r="N8" s="7">
-        <v>240974</v>
+        <v>427376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,54 +2181,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>127643</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>241661</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2453,13 +2240,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2468,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2483,64 +2270,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N11" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,72 +2336,72 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2623,79 +2410,79 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>165985</v>
+        <v>209732</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="N14" s="7">
-        <v>320824</v>
+        <v>416814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,153 +2491,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>568</v>
+        <v>687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>568</v>
+        <v>2151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>281</v>
+        <v>1016</v>
       </c>
       <c r="D17" s="7">
-        <v>207082</v>
+        <v>705464</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>274</v>
+        <v>1065</v>
       </c>
       <c r="I17" s="7">
-        <v>209732</v>
+        <v>747455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>555</v>
+        <v>2081</v>
       </c>
       <c r="N17" s="7">
-        <v>416814</v>
+        <v>1452919</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,217 +2646,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1066</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2084</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455070</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
-        <v>687</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1464</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2151</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D20" s="7">
-        <v>747455</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I20" s="7">
-        <v>705464</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2081</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1452919</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3082,8 +2713,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC3CC72-9C55-428D-98C7-89C627F5B078}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F432D1C6-A24E-429C-BB9C-F42F4C8C3536}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3099,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3200,34 +2831,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1163</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>1163</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3236,64 +2867,64 @@
         <v>1163</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>132544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>195</v>
       </c>
       <c r="I5" s="7">
-        <v>21364</v>
+        <v>148076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>381</v>
       </c>
       <c r="N5" s="7">
-        <v>46938</v>
+        <v>280620</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,54 +2933,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3361,94 +2992,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>223733</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="N8" s="7">
-        <v>233682</v>
+        <v>430980</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,72 +3088,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3531,79 +3162,79 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>626</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>223733</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
-        <v>665</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>430980</v>
+        <v>322670</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,54 +3243,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3671,94 +3302,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1327</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>1327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D14" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>204409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N14" s="7">
-        <v>322670</v>
+        <v>411829</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,153 +3398,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1327</v>
+        <v>1163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1953</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>1327</v>
+        <v>3117</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>288</v>
+        <v>1060</v>
       </c>
       <c r="D17" s="7">
-        <v>204409</v>
+        <v>703208</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>281</v>
+        <v>1062</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>742891</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
-        <v>569</v>
+        <v>2122</v>
       </c>
       <c r="N17" s="7">
-        <v>411829</v>
+        <v>1446098</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,217 +3553,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1953</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1163</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M19" s="7">
-        <v>4</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3117</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1062</v>
-      </c>
-      <c r="D20" s="7">
-        <v>742891</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I20" s="7">
-        <v>703208</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2122</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1446098</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
